--- a/db/prosess.xlsx
+++ b/db/prosess.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\freeair\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\www\demo\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1286C10A-2642-4088-AD19-79214B5E6A18}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A1A8ED-4249-47D2-B0F4-4670FD659DA4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6600" yWindow="2340" windowWidth="21600" windowHeight="11505" xr2:uid="{9A5316F9-547A-4D45-8B79-A41DABB2FF9A}"/>
+    <workbookView xWindow="11130" yWindow="1905" windowWidth="17055" windowHeight="12465" xr2:uid="{9A5316F9-547A-4D45-8B79-A41DABB2FF9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -459,7 +459,7 @@
   <dimension ref="C1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/db/prosess.xlsx
+++ b/db/prosess.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\www\demo\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A1A8ED-4249-47D2-B0F4-4670FD659DA4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6592C892-D64D-4333-8566-8C9198CF3C28}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11130" yWindow="1905" windowWidth="17055" windowHeight="12465" xr2:uid="{9A5316F9-547A-4D45-8B79-A41DABB2FF9A}"/>
+    <workbookView xWindow="6600" yWindow="2340" windowWidth="21600" windowHeight="11505" xr2:uid="{9A5316F9-547A-4D45-8B79-A41DABB2FF9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Client</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,10 +80,6 @@
   </si>
   <si>
     <t>修改时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>禁用标志</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -459,7 +455,7 @@
   <dimension ref="C1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -487,7 +483,7 @@
     </row>
     <row r="3" spans="3:9" x14ac:dyDescent="0.2">
       <c r="I3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="3:9" x14ac:dyDescent="0.2">
@@ -513,17 +509,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="I8" t="s">
-        <v>14</v>
-      </c>
-    </row>
     <row r="9" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>6</v>
       </c>
       <c r="I9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="3:9" x14ac:dyDescent="0.2">

--- a/db/prosess.xlsx
+++ b/db/prosess.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\www\demo\db\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6592C892-D64D-4333-8566-8C9198CF3C28}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="6600" yWindow="2340" windowWidth="21600" windowHeight="11505" xr2:uid="{9A5316F9-547A-4D45-8B79-A41DABB2FF9A}"/>
+    <workbookView xWindow="6600" yWindow="2340" windowWidth="21600" windowHeight="11505"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -94,8 +88,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,7 +192,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -250,7 +244,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -444,33 +438,33 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A53140-921F-4F85-B961-EA1C0DD79C23}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="3:9">
       <c r="I1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="3:9">
       <c r="C2" t="s">
         <v>0</v>
       </c>
@@ -481,17 +475,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:9">
       <c r="I3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:9">
       <c r="C4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:9">
       <c r="F5" t="s">
         <v>3</v>
       </c>
@@ -499,17 +493,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:9">
       <c r="F6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:9">
       <c r="F7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:9">
       <c r="C9" t="s">
         <v>6</v>
       </c>
@@ -517,32 +511,32 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:9">
       <c r="C11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:9">
       <c r="F13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:9">
       <c r="F14" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:9">
       <c r="C16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="6:6">
       <c r="F18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="6:6">
       <c r="F19" t="s">
         <v>5</v>
       </c>
@@ -550,5 +544,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>